--- a/OnBoard/output/trust/catch/Catch_Trust_67.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_67.xlsx
@@ -2294,7 +2294,7 @@
         <v>0.028</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I47">
         <v>13.923125</v>
@@ -2376,7 +2376,7 @@
         <v>0.031</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I49">
         <v>13.923125</v>
@@ -2622,7 +2622,7 @@
         <v>0.277</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I55">
         <v>13.923125</v>
@@ -2827,7 +2827,7 @@
         <v>1.406</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I60">
         <v>13.923125</v>
